--- a/100_Faturamento/002_Preco.xlsx
+++ b/100_Faturamento/002_Preco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jcbrothers-my.sharepoint.com/personal/jefferson_lojasjckids_com_br/Documents/Cursos/OrcamentoPadaria/100_Faturamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BA399AB-68F9-4FA3-BBCE-54B1EF704124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7BA399AB-68F9-4FA3-BBCE-54B1EF704124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD06763-6356-413D-8021-D765AAC25F09}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="3870" windowWidth="24585" windowHeight="12420" xr2:uid="{A3D988CE-5C40-483F-B112-8F54D4388785}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A3D988CE-5C40-483F-B112-8F54D4388785}"/>
   </bookViews>
   <sheets>
     <sheet name="Preco" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1000000000000001</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
